--- a/Program_Elements/src/test/resources/MasterExcel.xlsx
+++ b/Program_Elements/src/test/resources/MasterExcel.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="236">
   <si>
     <t>VenderName</t>
   </si>
@@ -85,12 +85,655 @@
   </si>
   <si>
     <t>INVOICE_00411</t>
+  </si>
+  <si>
+    <t>LokeshGangineni5558</t>
+  </si>
+  <si>
+    <t>LokeshGangineni5558Product</t>
+  </si>
+  <si>
+    <t>VID_1299</t>
+  </si>
+  <si>
+    <t>IM_PROD_7763</t>
+  </si>
+  <si>
+    <t>CAM00220</t>
+  </si>
+  <si>
+    <t>CON00068</t>
+  </si>
+  <si>
+    <t>LEAD00051</t>
+  </si>
+  <si>
+    <t>OPP00050</t>
+  </si>
+  <si>
+    <t>QTS00039</t>
+  </si>
+  <si>
+    <t>PO00012</t>
+  </si>
+  <si>
+    <t>SO00039</t>
+  </si>
+  <si>
+    <t>INVOICE_00038</t>
+  </si>
+  <si>
+    <t>LokeshGangineni6241</t>
+  </si>
+  <si>
+    <t>LokeshGangineni6241Product</t>
+  </si>
+  <si>
+    <t>VID_1302</t>
+  </si>
+  <si>
+    <t>IM_PROD_7769</t>
+  </si>
+  <si>
+    <t>CAM00257</t>
+  </si>
+  <si>
+    <t>CON00077</t>
+  </si>
+  <si>
+    <t>LEAD00060</t>
+  </si>
+  <si>
+    <t>OPP00059</t>
+  </si>
+  <si>
+    <t>QTS00047</t>
+  </si>
+  <si>
+    <t>PO00013</t>
+  </si>
+  <si>
+    <t>SO00047</t>
+  </si>
+  <si>
+    <t>INVOICE_00046</t>
+  </si>
+  <si>
+    <t>LokeshGangineni5880</t>
+  </si>
+  <si>
+    <t>LokeshGangineni5880Product</t>
+  </si>
+  <si>
+    <t>VID_1327</t>
+  </si>
+  <si>
+    <t>IM_PROD_7824</t>
+  </si>
+  <si>
+    <t>CAM00321</t>
+  </si>
+  <si>
+    <t>CON00105</t>
+  </si>
+  <si>
+    <t>LEAD00088</t>
+  </si>
+  <si>
+    <t>OPP00087</t>
+  </si>
+  <si>
+    <t>QTS00100</t>
+  </si>
+  <si>
+    <t>PO00015</t>
+  </si>
+  <si>
+    <t>SO00061</t>
+  </si>
+  <si>
+    <t>INVOICE_00060</t>
+  </si>
+  <si>
+    <t>LokeshGangineni3935</t>
+  </si>
+  <si>
+    <t>LokeshGangineni3935Product</t>
+  </si>
+  <si>
+    <t>VID_1330</t>
+  </si>
+  <si>
+    <t>IM_PROD_7828</t>
+  </si>
+  <si>
+    <t>CAM00330</t>
+  </si>
+  <si>
+    <t>CON00108</t>
+  </si>
+  <si>
+    <t>LEAD00091</t>
+  </si>
+  <si>
+    <t>OPP00090</t>
+  </si>
+  <si>
+    <t>QTS00106</t>
+  </si>
+  <si>
+    <t>PO00016</t>
+  </si>
+  <si>
+    <t>SO00062</t>
+  </si>
+  <si>
+    <t>INVOICE_00061</t>
+  </si>
+  <si>
+    <t>LokeshGangineni6266</t>
+  </si>
+  <si>
+    <t>LokeshGangineni6266Product</t>
+  </si>
+  <si>
+    <t>VID_1332</t>
+  </si>
+  <si>
+    <t>IM_PROD_7830</t>
+  </si>
+  <si>
+    <t>CAM00333</t>
+  </si>
+  <si>
+    <t>CON00110</t>
+  </si>
+  <si>
+    <t>LEAD00093</t>
+  </si>
+  <si>
+    <t>OPP00092</t>
+  </si>
+  <si>
+    <t>QTS00108</t>
+  </si>
+  <si>
+    <t>PO00017</t>
+  </si>
+  <si>
+    <t>SO00064</t>
+  </si>
+  <si>
+    <t>INVOICE_00063</t>
+  </si>
+  <si>
+    <t>LokeshGangineni6757</t>
+  </si>
+  <si>
+    <t>LokeshGangineni6757Product</t>
+  </si>
+  <si>
+    <t>VID_1336</t>
+  </si>
+  <si>
+    <t>IM_PROD_7833</t>
+  </si>
+  <si>
+    <t>CAM00345</t>
+  </si>
+  <si>
+    <t>CON00115</t>
+  </si>
+  <si>
+    <t>LEAD00097</t>
+  </si>
+  <si>
+    <t>OPP00096</t>
+  </si>
+  <si>
+    <t>QTS00112</t>
+  </si>
+  <si>
+    <t>PO00018</t>
+  </si>
+  <si>
+    <t>SO00068</t>
+  </si>
+  <si>
+    <t>INVOICE_00067</t>
+  </si>
+  <si>
+    <t>LokeshGangineni3049</t>
+  </si>
+  <si>
+    <t>LokeshGangineni3049Product</t>
+  </si>
+  <si>
+    <t>VID_1358</t>
+  </si>
+  <si>
+    <t>IM_PROD_7853</t>
+  </si>
+  <si>
+    <t>CAM00375</t>
+  </si>
+  <si>
+    <t>CON00137</t>
+  </si>
+  <si>
+    <t>LEAD00119</t>
+  </si>
+  <si>
+    <t>OPP00118</t>
+  </si>
+  <si>
+    <t>QTS00130</t>
+  </si>
+  <si>
+    <t>PO00019</t>
+  </si>
+  <si>
+    <t>SO00084</t>
+  </si>
+  <si>
+    <t>INVOICE_00079</t>
+  </si>
+  <si>
+    <t>LokeshGangineni4977</t>
+  </si>
+  <si>
+    <t>LokeshGangineni4977Product</t>
+  </si>
+  <si>
+    <t>VID_1366</t>
+  </si>
+  <si>
+    <t>IM_PROD_7866</t>
+  </si>
+  <si>
+    <t>CAM00436</t>
+  </si>
+  <si>
+    <t>CON00149</t>
+  </si>
+  <si>
+    <t>LEAD00131</t>
+  </si>
+  <si>
+    <t>OPP00130</t>
+  </si>
+  <si>
+    <t>QTS00141</t>
+  </si>
+  <si>
+    <t>PO00020</t>
+  </si>
+  <si>
+    <t>SO00095</t>
+  </si>
+  <si>
+    <t>INVOICE_00090</t>
+  </si>
+  <si>
+    <t>LokeshGangineni9174</t>
+  </si>
+  <si>
+    <t>LokeshGangineni9174Product</t>
+  </si>
+  <si>
+    <t>VID_1414</t>
+  </si>
+  <si>
+    <t>IM_PROD_7912</t>
+  </si>
+  <si>
+    <t>CAM00502</t>
+  </si>
+  <si>
+    <t>CON00195</t>
+  </si>
+  <si>
+    <t>LEAD00173</t>
+  </si>
+  <si>
+    <t>OPP00172</t>
+  </si>
+  <si>
+    <t>QTS00191</t>
+  </si>
+  <si>
+    <t>PO00023</t>
+  </si>
+  <si>
+    <t>SO00126</t>
+  </si>
+  <si>
+    <t>INVOICE_00117</t>
+  </si>
+  <si>
+    <t>LokeshGangineni3602</t>
+  </si>
+  <si>
+    <t>LokeshGangineni3602Product</t>
+  </si>
+  <si>
+    <t>VID_1416</t>
+  </si>
+  <si>
+    <t>IM_PROD_7914</t>
+  </si>
+  <si>
+    <t>CAM00503</t>
+  </si>
+  <si>
+    <t>CON00196</t>
+  </si>
+  <si>
+    <t>LEAD00174</t>
+  </si>
+  <si>
+    <t>OPP00173</t>
+  </si>
+  <si>
+    <t>QTS00193</t>
+  </si>
+  <si>
+    <t>PO00024</t>
+  </si>
+  <si>
+    <t>SO00127</t>
+  </si>
+  <si>
+    <t>INVOICE_00118</t>
+  </si>
+  <si>
+    <t>LokeshGangineni8703</t>
+  </si>
+  <si>
+    <t>LokeshGangineni8703Product</t>
+  </si>
+  <si>
+    <t>VID_1426</t>
+  </si>
+  <si>
+    <t>IM_PROD_7927</t>
+  </si>
+  <si>
+    <t>CAM00519</t>
+  </si>
+  <si>
+    <t>CON00205</t>
+  </si>
+  <si>
+    <t>LEAD00183</t>
+  </si>
+  <si>
+    <t>OPP00182</t>
+  </si>
+  <si>
+    <t>QTS00201</t>
+  </si>
+  <si>
+    <t>PO00025</t>
+  </si>
+  <si>
+    <t>SO00135</t>
+  </si>
+  <si>
+    <t>INVOICE_00126</t>
+  </si>
+  <si>
+    <t>LokeshGangineni1638</t>
+  </si>
+  <si>
+    <t>LokeshGangineni1638Product</t>
+  </si>
+  <si>
+    <t>VID_1429</t>
+  </si>
+  <si>
+    <t>IM_PROD_7933</t>
+  </si>
+  <si>
+    <t>CAM00525</t>
+  </si>
+  <si>
+    <t>CON00208</t>
+  </si>
+  <si>
+    <t>LEAD00186</t>
+  </si>
+  <si>
+    <t>OPP00185</t>
+  </si>
+  <si>
+    <t>QTS00209</t>
+  </si>
+  <si>
+    <t>PO00026</t>
+  </si>
+  <si>
+    <t>SO00138</t>
+  </si>
+  <si>
+    <t>INVOICE_00129</t>
+  </si>
+  <si>
+    <t>LokeshGangineni2096</t>
+  </si>
+  <si>
+    <t>LokeshGangineni2096Product</t>
+  </si>
+  <si>
+    <t>VID_1430</t>
+  </si>
+  <si>
+    <t>IM_PROD_7934</t>
+  </si>
+  <si>
+    <t>CAM00526</t>
+  </si>
+  <si>
+    <t>CON00209</t>
+  </si>
+  <si>
+    <t>LEAD00187</t>
+  </si>
+  <si>
+    <t>OPP00186</t>
+  </si>
+  <si>
+    <t>QTS00210</t>
+  </si>
+  <si>
+    <t>PO00027</t>
+  </si>
+  <si>
+    <t>SO00139</t>
+  </si>
+  <si>
+    <t>INVOICE_00130</t>
+  </si>
+  <si>
+    <t>LokeshGangineni9496</t>
+  </si>
+  <si>
+    <t>LokeshGangineni9496Product</t>
+  </si>
+  <si>
+    <t>VID_1431</t>
+  </si>
+  <si>
+    <t>IM_PROD_7935</t>
+  </si>
+  <si>
+    <t>CAM00527</t>
+  </si>
+  <si>
+    <t>CON00210</t>
+  </si>
+  <si>
+    <t>LEAD00188</t>
+  </si>
+  <si>
+    <t>OPP00187</t>
+  </si>
+  <si>
+    <t>QTS00212</t>
+  </si>
+  <si>
+    <t>PO00028</t>
+  </si>
+  <si>
+    <t>SO00140</t>
+  </si>
+  <si>
+    <t>INVOICE_00131</t>
+  </si>
+  <si>
+    <t>LokeshGangineni2048</t>
+  </si>
+  <si>
+    <t>LokeshGangineni2048Product</t>
+  </si>
+  <si>
+    <t>VID_1436</t>
+  </si>
+  <si>
+    <t>IM_PROD_7940</t>
+  </si>
+  <si>
+    <t>CAM00531</t>
+  </si>
+  <si>
+    <t>CON00215</t>
+  </si>
+  <si>
+    <t>LEAD00193</t>
+  </si>
+  <si>
+    <t>OPP00192</t>
+  </si>
+  <si>
+    <t>QTS00219</t>
+  </si>
+  <si>
+    <t>PO00029</t>
+  </si>
+  <si>
+    <t>SO00141</t>
+  </si>
+  <si>
+    <t>INVOICE_00132</t>
+  </si>
+  <si>
+    <t>LokeshGangineni8745</t>
+  </si>
+  <si>
+    <t>LokeshGangineni8745Product</t>
+  </si>
+  <si>
+    <t>VID_1485</t>
+  </si>
+  <si>
+    <t>IM_PROD_8060</t>
+  </si>
+  <si>
+    <t>CAM00199</t>
+  </si>
+  <si>
+    <t>CON00013</t>
+  </si>
+  <si>
+    <t>LEAD00013</t>
+  </si>
+  <si>
+    <t>OPP00013</t>
+  </si>
+  <si>
+    <t>QTS00013</t>
+  </si>
+  <si>
+    <t>SO00013</t>
+  </si>
+  <si>
+    <t>INVOICE_00013</t>
+  </si>
+  <si>
+    <t>LokeshGangineni9685</t>
+  </si>
+  <si>
+    <t>LokeshGangineni9685Product</t>
+  </si>
+  <si>
+    <t>VID_1486</t>
+  </si>
+  <si>
+    <t>IM_PROD_8061</t>
+  </si>
+  <si>
+    <t>CAM00200</t>
+  </si>
+  <si>
+    <t>CON00014</t>
+  </si>
+  <si>
+    <t>LEAD00014</t>
+  </si>
+  <si>
+    <t>OPP00014</t>
+  </si>
+  <si>
+    <t>QTS00014</t>
+  </si>
+  <si>
+    <t>SO00014</t>
+  </si>
+  <si>
+    <t>INVOICE_00014</t>
+  </si>
+  <si>
+    <t>LokeshGangineni6000</t>
+  </si>
+  <si>
+    <t>LokeshGangineni6000Product</t>
+  </si>
+  <si>
+    <t>VID_1487</t>
+  </si>
+  <si>
+    <t>IM_PROD_8062</t>
+  </si>
+  <si>
+    <t>CAM00201</t>
+  </si>
+  <si>
+    <t>CON00015</t>
+  </si>
+  <si>
+    <t>LEAD00015</t>
+  </si>
+  <si>
+    <t>OPP00015</t>
+  </si>
+  <si>
+    <t>QTS00015</t>
+  </si>
+  <si>
+    <t>PO00014</t>
+  </si>
+  <si>
+    <t>SO00015</t>
+  </si>
+  <si>
+    <t>INVOICE_00015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,17 +1060,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.7109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.42578125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -468,36 +1111,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
